--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/052_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/052_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R7701969c964646d4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Ra8b5c8c025b34d00"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -179,7 +179,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R603c5d7e5d654bc6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R93af821a9ef94a8f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -290,6 +290,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc4c32deee89a43ad"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rba2393322d4142f0"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/052_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/052_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Ra8b5c8c025b34d00"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R4c0c86c6707641f3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -179,7 +179,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R93af821a9ef94a8f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfb15bf9dfd94446c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -290,6 +290,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rba2393322d4142f0"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4d24e20364954d00"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/052_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/052_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R4c0c86c6707641f3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R47103fbd6cc54478"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -179,7 +179,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfb15bf9dfd94446c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1eadbcf2b1004714"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -290,6 +290,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4d24e20364954d00"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R87bfde2fbb81436e"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/052_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/052_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R47103fbd6cc54478"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R2cf9d94c7e7a43ec"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -179,7 +179,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1eadbcf2b1004714"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf19ca2c785e349b0"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -290,6 +290,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R87bfde2fbb81436e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re9ac2461d68545dd"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/052_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/052_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R2cf9d94c7e7a43ec"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rc1ba5ebe4cb5410a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -179,7 +179,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf19ca2c785e349b0"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf0ea79747fbc46ec"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -290,6 +290,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re9ac2461d68545dd"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9961404a3d9548b8"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/052_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/052_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rc1ba5ebe4cb5410a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R08335cf2be2e47f6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -179,7 +179,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf0ea79747fbc46ec"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R906e43db219a4f85"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -290,6 +290,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9961404a3d9548b8"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rdd0e43ed163549a3"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/052_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/052_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R08335cf2be2e47f6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R1618f6c69f3b474c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -179,7 +179,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R906e43db219a4f85"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re7230cc4a1804103"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -290,6 +290,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rdd0e43ed163549a3"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3ba228f6d1ad4794"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/052_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/052_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R1618f6c69f3b474c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R990225380e474a0a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -179,7 +179,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re7230cc4a1804103"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4877ba4410fa4c18"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -290,6 +290,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3ba228f6d1ad4794"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb2338ee1df0b496f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/052_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/052_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R990225380e474a0a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R226663cd240c4145"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -179,7 +179,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4877ba4410fa4c18"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R556abc83ee1a4f85"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -290,6 +290,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb2338ee1df0b496f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R970ae7d760834cad"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/052_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/052_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R226663cd240c4145"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R603862b2d30c45cc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -179,7 +179,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R556abc83ee1a4f85"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2426e247e8a543f4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -290,6 +290,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R970ae7d760834cad"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Redd3fcd1ac324fa9"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/052_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/052_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R603862b2d30c45cc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R6b7dcf2d603445ac"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,7 +29,7 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">
@@ -179,7 +179,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2426e247e8a543f4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc87e706e6d4f43dd"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -290,6 +290,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Redd3fcd1ac324fa9"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6740d5aed42f4701"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/052_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/052_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R6b7dcf2d603445ac"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rc452c2fb218e4256"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,7 +29,7 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">
@@ -179,7 +179,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc87e706e6d4f43dd"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5f47effe3a2b4791"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -290,6 +290,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6740d5aed42f4701"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2e2ce0529691457c"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/052_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/052_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rc452c2fb218e4256"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rdb54b989bd6a4442"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -179,7 +179,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5f47effe3a2b4791"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6fc70da7e62341f2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -290,6 +290,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2e2ce0529691457c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbf848af43b744a65"/>
 </x:worksheet>
 </file>